--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/PENNSYLVANIA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/PENNSYLVANIA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D898"/>
+  <dimension ref="A1:D892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C15">
@@ -615,7 +615,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C18">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C27">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C41">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C48">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C49">
@@ -1475,7 +1475,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1532,7 +1532,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C87">
@@ -1758,7 +1758,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C104">
@@ -1797,12 +1797,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C107">
@@ -1841,7 +1841,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C110">
@@ -1854,7 +1854,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C111">
@@ -1958,7 +1958,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C119">
@@ -2023,7 +2023,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C124">
@@ -2075,7 +2075,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C128">
@@ -2088,7 +2088,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C129">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C138">
@@ -2309,7 +2309,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C146">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C148">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C156">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C162">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C169">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C170">
@@ -2795,7 +2795,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C183">
@@ -2808,7 +2808,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C184">
@@ -2938,7 +2938,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C194">
@@ -3016,7 +3016,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C200">
@@ -3055,7 +3055,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C203">
@@ -3094,7 +3094,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C206">
@@ -3107,7 +3107,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C207">
@@ -3133,7 +3133,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C209">
@@ -3185,7 +3185,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C213">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C218">
@@ -3281,7 +3281,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C220">
@@ -3307,7 +3307,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C222">
@@ -3320,7 +3320,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C223">
@@ -3346,7 +3346,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C225">
@@ -3385,7 +3385,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C228">
@@ -3398,7 +3398,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C229">
@@ -3463,7 +3463,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C234">
@@ -3476,7 +3476,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C235">
@@ -3502,7 +3502,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C237">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C243">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C244">
@@ -3606,7 +3606,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C245">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C258">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C260">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C262">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C264">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C269">
@@ -4053,7 +4053,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C279">
@@ -4105,7 +4105,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C283">
@@ -4170,7 +4170,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C288">
@@ -4274,7 +4274,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C296">
@@ -4287,7 +4287,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C297">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C298">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C300">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C301">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C302">
@@ -4417,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C307">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C310">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C315">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C316">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C317">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C319">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C320">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C323">
@@ -4669,7 +4669,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C326">
@@ -4747,7 +4747,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C332">
@@ -4773,7 +4773,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C334">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C335">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C339">
@@ -4916,7 +4916,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C345">
@@ -4929,7 +4929,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C346">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C349">
@@ -5246,7 +5246,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C370">
@@ -6057,7 +6057,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C432">
@@ -6096,7 +6096,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C435">
@@ -6109,7 +6109,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C436">
@@ -6192,7 +6192,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C442">
@@ -6340,7 +6340,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C453">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C456">
@@ -6449,7 +6449,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C461">
@@ -6475,7 +6475,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C463">
@@ -6488,7 +6488,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C464">
@@ -6501,7 +6501,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C465">
@@ -6514,7 +6514,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C466">
@@ -6527,7 +6527,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C467">
@@ -6540,7 +6540,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C468">
@@ -6553,7 +6553,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C469">
@@ -6618,7 +6618,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C474">
@@ -6644,7 +6644,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C476">
@@ -6657,7 +6657,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C477">
@@ -6670,7 +6670,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C478">
@@ -6683,7 +6683,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C479">
@@ -6761,7 +6761,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C485">
@@ -6826,7 +6826,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C490">
@@ -6839,7 +6839,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C491">
@@ -6904,7 +6904,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C496">
@@ -6930,7 +6930,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C498">
@@ -7216,7 +7216,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C520">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C568">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C572">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C573">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C576">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C577">
@@ -8196,7 +8196,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C595">
@@ -8274,7 +8274,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C601">
@@ -8352,7 +8352,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C607">
@@ -8391,7 +8391,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C610">
@@ -8404,7 +8404,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C611">
@@ -8547,7 +8547,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C622">
@@ -8560,7 +8560,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C623">
@@ -8586,7 +8586,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C625">
@@ -8599,7 +8599,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C626">
@@ -8625,7 +8625,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C628">
@@ -8742,7 +8742,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C637">
@@ -8833,7 +8833,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C644">
@@ -9028,7 +9028,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C659">
@@ -9054,7 +9054,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C661">
@@ -9067,7 +9067,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C662">
@@ -9119,7 +9119,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C666">
@@ -9223,7 +9223,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C674">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C680">
@@ -9327,7 +9327,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C682">
@@ -9340,7 +9340,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C683">
@@ -9405,7 +9405,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C688">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C708">
@@ -9683,7 +9683,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C709">
@@ -9709,7 +9709,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C711">
@@ -9722,7 +9722,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C712">
@@ -9761,7 +9761,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C715">
@@ -9940,7 +9940,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C728">
@@ -9992,7 +9992,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C732">
@@ -10480,7 +10480,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C768">
@@ -10602,7 +10602,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C777">
@@ -10628,7 +10628,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C779">
@@ -10693,7 +10693,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C784">
@@ -10893,7 +10893,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C799">
@@ -10958,7 +10958,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C804">
@@ -11036,7 +11036,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C810">
@@ -11179,7 +11179,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C821">
@@ -11205,7 +11205,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C823">
@@ -11218,7 +11218,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C824">
@@ -11296,7 +11296,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C830">
@@ -11335,7 +11335,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C833">
@@ -11374,7 +11374,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C836">
@@ -11413,7 +11413,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C839">
@@ -11504,7 +11504,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C846">
@@ -11517,7 +11517,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C847">
@@ -11595,7 +11595,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C853">
@@ -11608,7 +11608,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C854">
@@ -11881,7 +11881,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C875">
@@ -11943,7 +11943,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C879">
@@ -12034,7 +12034,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C886">
@@ -12060,7 +12060,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C888">
@@ -12120,41 +12120,6 @@
       </c>
       <c r="D892">
         <v>1</v>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
